--- a/dbs/图数据库测试数据.xlsx
+++ b/dbs/图数据库测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="测试员打分情况" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+不喜欢-1
+喜欢1
+指向不明0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
   <si>
     <t>色泽</t>
   </si>
@@ -272,14 +308,7 @@
     <t>香辣原汁牛肉</t>
   </si>
   <si>
-    <t>五谷道场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
-  </si>
-  <si>
-    <t>200706201035 混</t>
   </si>
   <si>
     <t>今麦郎弹面（辣煌尚）</t>
@@ -302,9 +331,6 @@
     </r>
   </si>
   <si>
-    <t>200706190122 混</t>
-  </si>
-  <si>
     <t>重庆水煮肉片味</t>
   </si>
   <si>
@@ -338,9 +364,6 @@
       </rPr>
       <t>90g</t>
     </r>
-  </si>
-  <si>
-    <t>200706190042 混</t>
   </si>
   <si>
     <r>
@@ -424,10 +447,6 @@
     </r>
   </si>
   <si>
-    <t>今麦郎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否加宽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -463,10 +482,6 @@
   </si>
   <si>
     <t>豉香辣排面</t>
-  </si>
-  <si>
-    <t>康师傅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[河北]200706272</t>
@@ -694,360 +709,365 @@
     </r>
   </si>
   <si>
+    <t>20070620SY</t>
+  </si>
+  <si>
+    <t>葱爆牛肉面</t>
+  </si>
+  <si>
+    <t>袋装85g</t>
+  </si>
+  <si>
+    <t>20070824SY</t>
+  </si>
+  <si>
+    <t>大酱牛肉面</t>
+  </si>
+  <si>
+    <t>20070831SY</t>
+  </si>
+  <si>
+    <t>酸菜炖排骨味面</t>
+  </si>
+  <si>
+    <t>20070912SY</t>
+  </si>
+  <si>
+    <t>香辣蟹味面</t>
+  </si>
+  <si>
+    <t>20071007ZZA23</t>
+  </si>
+  <si>
+    <t>20071011SY</t>
+  </si>
+  <si>
+    <t>花椒精180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青花椒油100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成麻素100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超临界花椒精101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻木感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涩感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>针刺感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振动感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂涎感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼伤感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面编号1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方便面编号1007</t>
+  </si>
+  <si>
+    <t>方便面编号1008</t>
+  </si>
+  <si>
+    <t>方便面编号1009</t>
+  </si>
+  <si>
+    <t>方便面编号1010</t>
+  </si>
+  <si>
+    <t>方便面编号1011</t>
+  </si>
+  <si>
+    <t>方便面编号1012</t>
+  </si>
+  <si>
+    <t>方便面编号1013</t>
+  </si>
+  <si>
+    <t>方便面编号1014</t>
+  </si>
+  <si>
+    <t>方便面编号1015</t>
+  </si>
+  <si>
+    <t>方便面编号1016</t>
+  </si>
+  <si>
+    <t>用户1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户2号</t>
+  </si>
+  <si>
+    <t>用户3号</t>
+  </si>
+  <si>
+    <t>用户4号</t>
+  </si>
+  <si>
+    <t>用户5号</t>
+  </si>
+  <si>
+    <t>用户6号</t>
+  </si>
+  <si>
+    <t>用户7号</t>
+  </si>
+  <si>
+    <t>用户8号</t>
+  </si>
+  <si>
+    <t>用户9号</t>
+  </si>
+  <si>
+    <t>用户10号</t>
+  </si>
+  <si>
+    <t>用户11号</t>
+  </si>
+  <si>
+    <t>用户12号</t>
+  </si>
+  <si>
+    <t>方便面编号1017</t>
+  </si>
+  <si>
+    <t>方便面编号1018</t>
+  </si>
+  <si>
+    <t>方便面编号1019</t>
+  </si>
+  <si>
+    <t>方便面编号1020</t>
+  </si>
+  <si>
+    <t>方便面编号1021</t>
+  </si>
+  <si>
+    <t>方便面编号1022</t>
+  </si>
+  <si>
+    <t>方便面编号1023</t>
+  </si>
+  <si>
+    <t>方便面编号1024</t>
+  </si>
+  <si>
+    <t>方便面编号1025</t>
+  </si>
+  <si>
+    <t>方便面编号1026</t>
+  </si>
+  <si>
+    <t>方便面编号1027</t>
+  </si>
+  <si>
+    <t>方便面编号1028</t>
+  </si>
+  <si>
+    <t>方便面编号1029</t>
+  </si>
+  <si>
+    <t>方便面编号1030</t>
+  </si>
+  <si>
+    <t>5min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>25min</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>35min</t>
+  </si>
+  <si>
+    <t>麻感频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涩感频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣感频度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机的，如果用它生成图形肯定不准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70s</t>
+  </si>
+  <si>
+    <t>100s</t>
+  </si>
+  <si>
+    <t>130s</t>
+  </si>
+  <si>
+    <t>160s</t>
+  </si>
+  <si>
+    <t>190s</t>
+  </si>
+  <si>
+    <t>220s</t>
+  </si>
+  <si>
+    <t>250s</t>
+  </si>
+  <si>
+    <t>280s</t>
+  </si>
+  <si>
+    <t>310s</t>
+  </si>
+  <si>
+    <t>340s</t>
+  </si>
+  <si>
+    <t>370s</t>
+  </si>
+  <si>
+    <t>麻感强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400s</t>
+  </si>
+  <si>
+    <t>#这个数据编的稍微用了点心，差不多是上抛曲线的样子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#有时候可能会出bug,比如数据变成负数了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#这时候查新刷新就ok，以后有时间具体解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#方便面在某时刻由同一个人得出的口味数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强度顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯科维尔指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻度等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>十</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庖丁时蔬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五谷道场</t>
+  </si>
+  <si>
+    <t>今麦郎</t>
+  </si>
+  <si>
+    <t>康师傅</t>
+  </si>
+  <si>
     <t>白象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20070620SY</t>
-  </si>
-  <si>
-    <t>葱爆牛肉面</t>
-  </si>
-  <si>
-    <t>袋装85g</t>
-  </si>
-  <si>
-    <t>20070824SY</t>
-  </si>
-  <si>
-    <t>大酱牛肉面</t>
-  </si>
-  <si>
-    <t>20070831SY</t>
-  </si>
-  <si>
-    <t>酸菜炖排骨味面</t>
-  </si>
-  <si>
-    <t>20070912SY</t>
-  </si>
-  <si>
-    <t>香辣蟹味面</t>
-  </si>
-  <si>
-    <t>20071007ZZA23</t>
-  </si>
-  <si>
-    <t>20071011SY</t>
-  </si>
-  <si>
-    <t>浓香排骨面</t>
   </si>
   <si>
     <t>统一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>花椒精180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青花椒油100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成麻素100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超临界花椒精101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻木感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涩感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针刺感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>振动感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂涎感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼伤感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便面编号1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便面编号1007</t>
-  </si>
-  <si>
-    <t>方便面编号1008</t>
-  </si>
-  <si>
-    <t>方便面编号1009</t>
-  </si>
-  <si>
-    <t>方便面编号1010</t>
-  </si>
-  <si>
-    <t>方便面编号1011</t>
-  </si>
-  <si>
-    <t>方便面编号1012</t>
-  </si>
-  <si>
-    <t>方便面编号1013</t>
-  </si>
-  <si>
-    <t>方便面编号1014</t>
-  </si>
-  <si>
-    <t>方便面编号1015</t>
-  </si>
-  <si>
-    <t>方便面编号1016</t>
-  </si>
-  <si>
-    <t>用户1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户2号</t>
-  </si>
-  <si>
-    <t>用户3号</t>
-  </si>
-  <si>
-    <t>用户4号</t>
-  </si>
-  <si>
-    <t>用户5号</t>
-  </si>
-  <si>
-    <t>用户6号</t>
-  </si>
-  <si>
-    <t>用户7号</t>
-  </si>
-  <si>
-    <t>用户8号</t>
-  </si>
-  <si>
-    <t>用户9号</t>
-  </si>
-  <si>
-    <t>用户10号</t>
-  </si>
-  <si>
-    <t>用户11号</t>
-  </si>
-  <si>
-    <t>用户12号</t>
-  </si>
-  <si>
-    <t>不喜欢：-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喜欢：1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指向不明：0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方便面编号1017</t>
-  </si>
-  <si>
-    <t>方便面编号1018</t>
-  </si>
-  <si>
-    <t>方便面编号1019</t>
-  </si>
-  <si>
-    <t>方便面编号1020</t>
-  </si>
-  <si>
-    <t>方便面编号1021</t>
-  </si>
-  <si>
-    <t>方便面编号1022</t>
-  </si>
-  <si>
-    <t>方便面编号1023</t>
-  </si>
-  <si>
-    <t>方便面编号1024</t>
-  </si>
-  <si>
-    <t>方便面编号1025</t>
-  </si>
-  <si>
-    <t>方便面编号1026</t>
-  </si>
-  <si>
-    <t>方便面编号1027</t>
-  </si>
-  <si>
-    <t>方便面编号1028</t>
-  </si>
-  <si>
-    <t>方便面编号1029</t>
-  </si>
-  <si>
-    <t>方便面编号1030</t>
-  </si>
-  <si>
-    <t>5min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>20min</t>
-  </si>
-  <si>
-    <t>25min</t>
-  </si>
-  <si>
-    <t>30min</t>
-  </si>
-  <si>
-    <t>35min</t>
-  </si>
-  <si>
-    <t>麻感频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涩感频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辣感频度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机的，如果用它生成图形肯定不准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70s</t>
-  </si>
-  <si>
-    <t>100s</t>
-  </si>
-  <si>
-    <t>130s</t>
-  </si>
-  <si>
-    <t>160s</t>
-  </si>
-  <si>
-    <t>190s</t>
-  </si>
-  <si>
-    <t>220s</t>
-  </si>
-  <si>
-    <t>250s</t>
-  </si>
-  <si>
-    <t>280s</t>
-  </si>
-  <si>
-    <t>310s</t>
-  </si>
-  <si>
-    <t>340s</t>
-  </si>
-  <si>
-    <t>370s</t>
-  </si>
-  <si>
-    <t>麻感强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400s</t>
-  </si>
-  <si>
-    <t>#这个数据编的稍微用了点心，差不多是上抛曲线的样子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#有时候可能会出bug,比如数据变成负数了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#这时候查新刷新就ok，以后有时间具体解决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#方便面在某时刻由同一个人得出的口味数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强度顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯科维尔指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻度等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-  </si>
-  <si>
-    <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>十</t>
+    <t>浓香排骨面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,7 +1079,7 @@
     <numFmt numFmtId="176" formatCode="0.0000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1116,19 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1148,7 +1181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1181,9 +1214,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1225,14 +1255,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1265,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,9 +1573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2898,7 +2922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -2909,16 +2933,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2926,7 +2950,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2935,7 +2959,7 @@
         <v>140000</v>
       </c>
       <c r="E2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2943,7 +2967,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2952,7 +2976,7 @@
         <v>220000</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2960,7 +2984,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2969,7 +2993,7 @@
         <v>360000</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2977,7 +3001,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2986,7 +3010,7 @@
         <v>400000</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2994,7 +3018,7 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3003,7 +3027,7 @@
         <v>600000</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3011,7 +3035,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3020,7 +3044,7 @@
         <v>880000</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3028,7 +3052,7 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3037,7 +3061,7 @@
         <v>140000</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3045,7 +3069,7 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3054,7 +3078,7 @@
         <v>220000</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3062,7 +3086,7 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3071,7 +3095,7 @@
         <v>360000</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3079,7 +3103,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3088,7 +3112,7 @@
         <v>140000</v>
       </c>
       <c r="E11" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3096,7 +3120,7 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3105,7 +3129,7 @@
         <v>220000</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3113,7 +3137,7 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3122,7 +3146,7 @@
         <v>360000</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3130,7 +3154,7 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3139,7 +3163,7 @@
         <v>140000</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3147,7 +3171,7 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3156,7 +3180,7 @@
         <v>220000</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3164,7 +3188,7 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3173,12 +3197,12 @@
         <v>220000</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3202,30 +3226,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>2.1800000000000002</v>
@@ -3251,7 +3275,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3277,7 +3301,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B4">
         <v>3.3</v>
@@ -3303,7 +3327,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>3.38</v>
@@ -3334,18 +3358,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -3363,93 +3387,93 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O1" t="s">
-        <v>117</v>
-      </c>
-      <c r="P1" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>119</v>
-      </c>
       <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AE1" t="s">
         <v>136</v>
-      </c>
-      <c r="T1" t="s">
-        <v>137</v>
-      </c>
-      <c r="U1" t="s">
-        <v>138</v>
-      </c>
-      <c r="V1" t="s">
-        <v>139</v>
-      </c>
-      <c r="W1" t="s">
-        <v>140</v>
-      </c>
-      <c r="X1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:R13" ca="1" si="0">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -3457,11 +3481,11 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -3469,7 +3493,7 @@
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
@@ -3481,11 +3505,11 @@
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -3493,19 +3517,19 @@
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S2">
         <f t="shared" ref="R2:AE13" ca="1" si="1">RANDBETWEEN(-1,1)</f>
@@ -3513,7 +3537,7 @@
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
@@ -3529,11 +3553,11 @@
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
@@ -3541,7 +3565,7 @@
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
@@ -3549,32 +3573,32 @@
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="2">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
@@ -3586,11 +3610,11 @@
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
@@ -3598,15 +3622,15 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
@@ -3630,7 +3654,7 @@
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
@@ -3638,19 +3662,19 @@
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
@@ -3658,23 +3682,23 @@
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
@@ -3687,11 +3711,11 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
@@ -3699,15 +3723,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
@@ -3719,7 +3743,7 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
@@ -3731,35 +3755,35 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
@@ -3767,7 +3791,7 @@
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
@@ -3775,7 +3799,7 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
@@ -3783,11 +3807,11 @@
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
@@ -3795,7 +3819,7 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="1"/>
@@ -3807,16 +3831,16 @@
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
@@ -3824,35 +3848,35 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
@@ -3860,15 +3884,15 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
@@ -3876,43 +3900,43 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
@@ -3920,11 +3944,11 @@
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="1"/>
@@ -3932,16 +3956,16 @@
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
@@ -3949,15 +3973,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
@@ -3969,19 +3993,19 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -3993,7 +4017,7 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
@@ -4009,7 +4033,7 @@
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
@@ -4021,11 +4045,11 @@
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
@@ -4041,11 +4065,11 @@
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
@@ -4053,7 +4077,7 @@
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="1"/>
@@ -4062,19 +4086,19 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
@@ -4086,11 +4110,11 @@
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
@@ -4102,23 +4126,23 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
@@ -4154,7 +4178,7 @@
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
@@ -4162,11 +4186,11 @@
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
@@ -4178,7 +4202,7 @@
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
@@ -4187,11 +4211,11 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
@@ -4203,7 +4227,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
@@ -4211,11 +4235,11 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
@@ -4223,15 +4247,15 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
@@ -4239,19 +4263,19 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
@@ -4259,27 +4283,27 @@
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
@@ -4291,28 +4315,28 @@
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
@@ -4320,23 +4344,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
@@ -4344,15 +4368,15 @@
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
@@ -4364,7 +4388,7 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
@@ -4372,11 +4396,11 @@
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
@@ -4384,15 +4408,15 @@
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
@@ -4400,27 +4424,27 @@
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
@@ -4428,28 +4452,28 @@
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
@@ -4461,7 +4485,7 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
@@ -4469,7 +4493,7 @@
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -4477,19 +4501,19 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -4505,15 +4529,15 @@
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
@@ -4521,11 +4545,11 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
@@ -4533,19 +4557,19 @@
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
@@ -4562,11 +4586,11 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
@@ -4606,7 +4630,7 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
@@ -4614,27 +4638,27 @@
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
@@ -4642,23 +4666,23 @@
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="1"/>
@@ -4666,7 +4690,7 @@
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="1"/>
@@ -4674,7 +4698,7 @@
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
@@ -4682,16 +4706,16 @@
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
@@ -4703,19 +4727,19 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
@@ -4723,15 +4747,15 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
@@ -4743,11 +4767,11 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
@@ -4755,11 +4779,11 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
@@ -4767,31 +4791,31 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="1"/>
@@ -4803,7 +4827,7 @@
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="1"/>
@@ -4812,7 +4836,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
@@ -4820,11 +4844,11 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -4832,15 +4856,15 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
@@ -4848,7 +4872,7 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
@@ -4860,23 +4884,23 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
@@ -4888,7 +4912,7 @@
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
@@ -4900,7 +4924,7 @@
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
@@ -4908,7 +4932,7 @@
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="1"/>
@@ -4916,11 +4940,11 @@
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="1"/>
@@ -4935,81 +4959,76 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>134</v>
-      </c>
-    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="11" max="11" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="16">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="15">
         <v>1001</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>20070528761</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="16">
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="15">
         <v>1002</v>
       </c>
       <c r="C3" s="11">
@@ -5025,9 +5044,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="16">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="15">
         <v>1003</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -5043,9 +5064,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="16">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="15">
         <v>1004</v>
       </c>
       <c r="C5" s="11">
@@ -5061,520 +5084,482 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="15">
         <v>1005</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>20070917561</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="16">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="15">
         <v>1006</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>2007092612</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="17" t="s">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="18">
+        <v>200706201035</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="16">
-        <v>1007</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1008</v>
+      </c>
+      <c r="C9" s="16">
+        <v>200706190122</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="16">
-        <v>1008</v>
-      </c>
-      <c r="C10" s="17" t="s">
+      <c r="G9" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1009</v>
+      </c>
+      <c r="C10" s="16">
+        <v>200706190132</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="16">
-        <v>1009</v>
-      </c>
-      <c r="C11" s="17">
-        <v>200706190132</v>
-      </c>
-      <c r="D11" s="21" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1010</v>
+      </c>
+      <c r="C11" s="18">
+        <v>200706190042</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="16">
-        <v>1010</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1011</v>
+      </c>
+      <c r="C12" s="16">
+        <v>200706207074</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="16">
-        <v>1011</v>
-      </c>
-      <c r="C13" s="17">
-        <v>200706207074</v>
-      </c>
-      <c r="D13" s="17" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1012</v>
+      </c>
+      <c r="C13" s="16">
+        <v>200706191114</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="16">
-        <v>1012</v>
-      </c>
-      <c r="C14" s="17">
-        <v>200706191114</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="G13" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>182</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1013</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="18" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1014</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
+      <c r="D15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="15">
+        <v>1015</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="15">
+        <v>1016</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1017</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1018</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="15">
+        <v>1019</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1020</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1021</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="16">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="16">
-        <v>1014</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="16">
-        <v>1015</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="16">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="16">
-        <v>1017</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="D22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1022</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="16">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="26"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12" t="s">
+      <c r="E23" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1023</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1024</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="15">
+        <v>1025</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="15">
+        <v>1026</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" s="15">
+        <v>1027</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="26"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="29">
-        <v>1019</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="29">
-        <v>1020</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="26"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="29">
-        <v>1021</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="26"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="29">
-        <v>1022</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="26"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="29">
-        <v>1023</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="E28" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="15">
+        <v>1028</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="15">
+        <v>1029</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="E30" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="26"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="29">
-        <v>1024</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="16">
-        <v>1025</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="16">
-        <v>1026</v>
-      </c>
-      <c r="C31" s="14" t="s">
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1030</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="16">
-        <v>1027</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="16">
-        <v>1028</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="26"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="16">
-        <v>1029</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="26"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="16">
-        <v>1030</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="26"/>
+      <c r="D31" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="15"/>
+    </row>
+    <row r="33" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B33" s="15"/>
+    </row>
+    <row r="34" spans="2:2" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A29:A35"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5592,52 +5577,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" t="s">
+        <v>157</v>
+      </c>
+      <c r="M1" t="s">
+        <v>158</v>
+      </c>
+      <c r="N1" t="s">
+        <v>159</v>
+      </c>
+      <c r="O1" t="s">
         <v>160</v>
       </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>163</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -5649,55 +5634,55 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,200)/10</f>
-        <v>1.6</v>
+        <v>14.3</v>
       </c>
       <c r="D2">
         <f ca="1">C2+RANDBETWEEN(10,100)/10</f>
-        <v>5.4</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="E2">
         <f ca="1">D2+RANDBETWEEN(10,100)/10</f>
-        <v>14.700000000000001</v>
+        <v>28.6</v>
       </c>
       <c r="F2">
         <f ca="1">E2+RANDBETWEEN(10,100)/10</f>
-        <v>22.5</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,100)/10</f>
-        <v>28.6</v>
+        <v>32.900000000000006</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,100)/10</f>
-        <v>38.1</v>
+        <v>42.600000000000009</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,100)/10</f>
-        <v>45.2</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:M11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
-        <v>44.2</v>
+        <f t="shared" ref="J2:K11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
+        <v>44.400000000000006</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>41.2</v>
+        <v>42.2</v>
       </c>
       <c r="L2">
         <f ca="1">K2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.8</v>
+        <v>25.700000000000003</v>
       </c>
       <c r="M2">
         <f ca="1">L2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>17.5</v>
+        <v>21.650000000000002</v>
       </c>
       <c r="N2">
         <f ca="1">M2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>5.45</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="O2">
         <f ca="1">N2/2</f>
-        <v>2.7250000000000001</v>
+        <v>4.2125000000000004</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5712,55 +5697,55 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">RANDBETWEEN(10,200)/10</f>
-        <v>17.899999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F16" ca="1" si="2">C3+RANDBETWEEN(10,100)/10</f>
-        <v>24.099999999999998</v>
+        <v>27.1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>33.799999999999997</v>
+        <v>29.700000000000003</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>35.099999999999994</v>
+        <v>39.1</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:I16" ca="1" si="3">F3+RANDBETWEEN(-10,100)/10</f>
-        <v>44.499999999999993</v>
+        <v>41.4</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="3"/>
-        <v>44.399999999999991</v>
+        <v>46.9</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
-        <v>50.599999999999994</v>
+        <v>46.1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>46.499999999999993</v>
+        <v>41.800000000000004</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:M3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
-        <v>43.599999999999994</v>
+        <f t="shared" ref="K3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
+        <v>40.800000000000004</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" ca="1" si="5">K3/2+RANDBETWEEN(-50,100)/10</f>
-        <v>27.099999999999998</v>
+        <v>16.500000000000004</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>14.249999999999998</v>
+        <v>12.150000000000002</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2249999999999996</v>
+        <v>5.2750000000000012</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="6">N3/2</f>
-        <v>2.6124999999999998</v>
+        <v>2.6375000000000006</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5775,55 +5760,55 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>12.5</v>
+        <v>3.4</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>14.4</v>
+        <v>5.5</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>13.1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>28.7</v>
+        <v>21.4</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>37.700000000000003</v>
+        <v>24.7</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>37.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>43.2</v>
+        <v>34</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>41.300000000000004</v>
+        <v>31.3</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:M4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
-        <v>39.700000000000003</v>
+        <f t="shared" ref="K4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
+        <v>26.5</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:N4" ca="1" si="8">K4/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.450000000000003</v>
+        <v>14.15</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>16.925000000000001</v>
+        <v>5.375</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="8"/>
-        <v>9.5625</v>
+        <v>11.7875</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>4.78125</v>
+        <v>5.8937499999999998</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5838,55 +5823,55 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>11.7</v>
+        <v>13.4</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>21.299999999999997</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>27.499999999999996</v>
+        <v>18.5</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>30.399999999999995</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>30.999999999999996</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>39.299999999999997</v>
+        <v>28.6</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>38.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>35.9</v>
+        <v>26.9</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:M5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
-        <v>34.5</v>
+        <f t="shared" ref="K5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
+        <v>25.599999999999998</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:N5" ca="1" si="10">K5/2+RANDBETWEEN(-50,100)/10</f>
-        <v>15.55</v>
+        <v>21.2</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>13.775</v>
+        <v>10.6</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>8.2874999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1437499999999998</v>
+        <v>1.65</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5901,55 +5886,55 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2</v>
+        <v>10.4</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>11.9</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>25.6</v>
+        <v>20.8</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>26.5</v>
+        <v>26.9</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>27.599999999999998</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>28.4</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>30.3</v>
+        <v>26.2</v>
       </c>
       <c r="K6">
-        <f t="shared" ref="K6:M6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
-        <v>28.7</v>
+        <f t="shared" ref="K6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
+        <v>25</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:N6" ca="1" si="12">K6/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.55</v>
+        <v>12.8</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="12"/>
-        <v>9.875</v>
+        <v>10.4</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="12"/>
-        <v>13.0375</v>
+        <v>9.4</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5187499999999998</v>
+        <v>4.7</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5964,55 +5949,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>19.2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>27.7</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>22.9</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>31.4</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>40.299999999999997</v>
+        <v>45.099999999999994</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>49.4</v>
+        <v>44.199999999999996</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>58.2</v>
+        <v>53.699999999999996</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>56.400000000000006</v>
+        <v>49.499999999999993</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:M7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
-        <v>55.100000000000009</v>
+        <f t="shared" ref="K7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
+        <v>47.79999999999999</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:N7" ca="1" si="14">K7/2+RANDBETWEEN(-50,100)/10</f>
-        <v>32.250000000000007</v>
+        <v>25.199999999999996</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="14"/>
-        <v>19.625000000000004</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="14"/>
-        <v>11.712500000000002</v>
+        <v>1.9499999999999984</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8562500000000011</v>
+        <v>0.9749999999999992</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -6027,55 +6012,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>11.9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>17.2</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>19.5</v>
+        <v>30.3</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>24.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.200000000000003</v>
+        <v>44.9</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.200000000000003</v>
+        <v>50.1</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="3"/>
-        <v>33.300000000000004</v>
+        <v>57.800000000000004</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>29.700000000000003</v>
+        <v>55.800000000000004</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:M8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
-        <v>28.1</v>
+        <f t="shared" ref="K8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
+        <v>54.1</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:N8" ca="1" si="16">K8/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.450000000000003</v>
+        <v>30.25</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="16"/>
-        <v>19.725000000000001</v>
+        <v>21.925000000000001</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="16"/>
-        <v>10.0625</v>
+        <v>8.7624999999999993</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>5.03125</v>
+        <v>4.3812499999999996</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -6090,55 +6075,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>7.9</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>11.2</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>15.799999999999999</v>
+        <v>22.599999999999998</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>21.7</v>
+        <v>31.099999999999998</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>27.299999999999997</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="3"/>
-        <v>29.099999999999998</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="3"/>
-        <v>29.9</v>
+        <v>42.4</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>41.1</v>
       </c>
       <c r="K9">
-        <f t="shared" ref="K9:M9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
-        <v>22.1</v>
+        <f t="shared" ref="K9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
+        <v>36.1</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:N9" ca="1" si="18">K9/2+RANDBETWEEN(-50,100)/10</f>
-        <v>20.65</v>
+        <v>27.65</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="18"/>
-        <v>13.524999999999999</v>
+        <v>9.0249999999999986</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>1.9624999999999995</v>
+        <v>5.9124999999999996</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.98124999999999973</v>
+        <v>2.9562499999999998</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -6153,55 +6138,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>12.4</v>
+        <v>17.3</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>18.100000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>19.5</v>
+        <v>25.5</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>20.9</v>
+        <v>27.8</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>30.299999999999997</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>29.9</v>
+        <v>36.4</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>39.099999999999994</v>
+        <v>46.099999999999994</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>38.099999999999994</v>
+        <v>43.199999999999996</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:M10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
-        <v>35.799999999999997</v>
+        <f t="shared" ref="K10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
+        <v>40.599999999999994</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:N10" ca="1" si="20">K10/2+RANDBETWEEN(-50,100)/10</f>
-        <v>15.799999999999999</v>
+        <v>17.799999999999997</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="20"/>
-        <v>14</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="20"/>
-        <v>11.5</v>
+        <v>8.9999999999999982</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>5.75</v>
+        <v>4.4999999999999991</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6216,55 +6201,55 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>10.4</v>
+        <v>5.4</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>16.5</v>
+        <v>11.7</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>21.6</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>23.900000000000002</v>
+        <v>26.2</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>31.5</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>31.1</v>
+        <v>29.999999999999996</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>33.5</v>
+        <v>30.699999999999996</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>30.9</v>
+        <v>29.399999999999995</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:M11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
-        <v>26.799999999999997</v>
+        <f t="shared" ref="K11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
+        <v>27.499999999999996</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:N11" ca="1" si="22">K11/2+RANDBETWEEN(-50,100)/10</f>
-        <v>11.599999999999998</v>
+        <v>20.849999999999998</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="22"/>
-        <v>10.599999999999998</v>
+        <v>18.824999999999999</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="22"/>
-        <v>2.9999999999999991</v>
+        <v>7.4124999999999996</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>1.4999999999999996</v>
+        <v>3.7062499999999998</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -6279,55 +6264,55 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>15.100000000000001</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>18.8</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>27.6</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>29.1</v>
+        <v>26.1</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>34.1</v>
+        <v>31.200000000000003</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>40.800000000000004</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J12">
         <f ca="1">I12-RANDBETWEEN(10,50)/10</f>
-        <v>36.500000000000007</v>
+        <v>39.1</v>
       </c>
       <c r="K12">
-        <f t="shared" ref="K12:M12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
-        <v>32.900000000000006</v>
+        <f t="shared" ref="K12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
+        <v>35.800000000000004</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:N12" ca="1" si="24">K12/2+RANDBETWEEN(-50,100)/10</f>
-        <v>20.350000000000001</v>
+        <v>21.700000000000003</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="24"/>
-        <v>17.475000000000001</v>
+        <v>10.150000000000002</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="24"/>
-        <v>18.4375</v>
+        <v>1.1750000000000012</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>9.21875</v>
+        <v>0.58750000000000058</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -6342,55 +6327,55 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>14.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>21.7</v>
+        <v>23.400000000000002</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>28.9</v>
+        <v>37.800000000000004</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>42.500000000000007</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:M16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
-        <v>32.1</v>
+        <f t="shared" ref="J13:K16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
+        <v>40.500000000000007</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="25"/>
-        <v>30.3</v>
+        <v>36.20000000000001</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13:N13" ca="1" si="26">K13/2+RANDBETWEEN(-50,100)/10</f>
-        <v>20.45</v>
+        <v>13.800000000000004</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="26"/>
-        <v>11.924999999999999</v>
+        <v>7.5000000000000018</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="26"/>
-        <v>4.7624999999999993</v>
+        <v>10.55</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>2.3812499999999996</v>
+        <v>5.2750000000000004</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6405,55 +6390,55 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>16.7</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>9.3999999999999986</v>
+        <v>20.3</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>16.799999999999997</v>
+        <v>21.900000000000002</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>17.999999999999996</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>22.799999999999997</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>26.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>34.199999999999996</v>
+        <v>38.9</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="25"/>
-        <v>32.699999999999996</v>
+        <v>37.5</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="25"/>
-        <v>30.999999999999996</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:N14" ca="1" si="27">K14/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.999999999999998</v>
+        <v>17</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="27"/>
-        <v>3.899999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="27"/>
-        <v>3.7499999999999996</v>
+        <v>12.9</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.8749999999999998</v>
+        <v>6.45</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6468,55 +6453,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>17.8</v>
+        <v>7.3</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>22.700000000000003</v>
+        <v>15.3</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>29.400000000000002</v>
+        <v>19.3</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>34.5</v>
+        <v>27.5</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>42.8</v>
+        <v>27.2</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>46.599999999999994</v>
+        <v>30.099999999999998</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>47.099999999999994</v>
+        <v>30.2</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="25"/>
-        <v>43.999999999999993</v>
+        <v>26.9</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="25"/>
-        <v>40.79999999999999</v>
+        <v>25.5</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:N15" ca="1" si="28">K15/2+RANDBETWEEN(-50,100)/10</f>
-        <v>22.399999999999995</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="28"/>
-        <v>21.099999999999998</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="28"/>
-        <v>6.8499999999999988</v>
+        <v>18.362499999999997</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>3.4249999999999994</v>
+        <v>9.1812499999999986</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6531,55 +6516,55 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>18.899999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>30.7</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>32.200000000000003</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>32.200000000000003</v>
+        <v>16.700000000000003</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>21.1</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>36.1</v>
+        <v>22.400000000000002</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="25"/>
-        <v>34.1</v>
+        <v>19.3</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="25"/>
-        <v>30</v>
+        <v>15.9</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:N16" ca="1" si="29">K16/2+RANDBETWEEN(-50,100)/10</f>
-        <v>18.7</v>
+        <v>3.6500000000000004</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="29"/>
-        <v>18.75</v>
+        <v>5.125</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="29"/>
-        <v>12.975</v>
+        <v>-0.73749999999999982</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>6.4874999999999998</v>
+        <v>-0.36874999999999991</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6587,17 +6572,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -6618,78 +6603,78 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="P1" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="Q2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="T2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="U2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="V2" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -6698,87 +6683,87 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.06</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>0.19000000000000006</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O3" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.14000000000000007</v>
+        <v>0.26</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56999999999999995</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57999999999999996</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42000000000000004</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
-        <v>0.32999999999999996</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V3" ca="1" si="2">1-C3-J3</f>
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28000000000000003</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -6787,67 +6772,67 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>0.45</v>
+        <v>0.17</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.26999999999999996</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" ca="1" si="5">RANDBETWEEN(50,80)/100-C4</f>
-        <v>0.46</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" ca="1" si="6">RANDBETWEEN(50,80)/100-D4</f>
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(50,80)/100-E4</f>
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M32" ca="1" si="8">RANDBETWEEN(50,80)/100-F4</f>
-        <v>0.21000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N32" ca="1" si="9">RANDBETWEEN(50,80)/100-G4</f>
-        <v>0.42</v>
+        <v>0.69</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O32" ca="1" si="10">RANDBETWEEN(50,80)/100-H4</f>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P32" ca="1" si="11">1-B4-I4</f>
-        <v>0.28000000000000008</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q32" ca="1" si="12">1-C4-J4</f>
-        <v>0.22999999999999993</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R32" ca="1" si="13">1-D4-K4</f>
@@ -6855,19 +6840,19 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S32" ca="1" si="14">1-E4-L4</f>
-        <v>0.25</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T32" ca="1" si="15">1-F4-M4</f>
-        <v>0.49999999999999994</v>
+        <v>0.27</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U32" ca="1" si="16">1-G4-N4</f>
-        <v>0.38000000000000006</v>
+        <v>0.27</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V32" ca="1" si="17">1-H4-O4</f>
-        <v>0.27999999999999997</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -6876,59 +6861,59 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.27</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
         <v>0.12</v>
       </c>
-      <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
-      </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0.26</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.68</v>
+        <v>0.32</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24999999999999994</v>
+        <v>0.63</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
@@ -6936,27 +6921,27 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="13"/>
-        <v>0.19999999999999996</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25000000000000006</v>
+        <v>0.49</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29000000000000009</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="16"/>
-        <v>0.25999999999999995</v>
+        <v>0.36999999999999988</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26999999999999996</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -6965,87 +6950,87 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.24</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.38</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.40999999999999992</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.21999999999999997</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3899999999999999</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.26</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -7054,87 +7039,87 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
         <v>0.33</v>
       </c>
-      <c r="C7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <f t="shared" ca="1" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
-      </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.34</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12999999999999995</v>
+        <v>0.25999999999999995</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.41</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.57999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.46999999999999992</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4300000000000001</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27999999999999997</v>
+        <v>0.43999999999999989</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="16"/>
-        <v>0.39000000000000007</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -7143,87 +7128,87 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.32</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.34</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.27</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.48</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
+        <v>0.17</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62</v>
+        <v>0.45</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67</v>
+        <v>0.46</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.27999999999999997</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.12999999999999995</v>
+        <v>0.35</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.22999999999999998</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49000000000000005</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.3000000000000001</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.41000000000000009</v>
+        <v>0.48</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -7232,87 +7217,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.47</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29000000000000004</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45000000000000007</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45999999999999996</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.47000000000000003</v>
+        <v>0.14000000000000007</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30999999999999994</v>
+        <v>0.34000000000000008</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.21999999999999997</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39000000000000007</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21999999999999997</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="13"/>
-        <v>0.19999999999999996</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43000000000000005</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21999999999999992</v>
+        <v>0.44</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.42000000000000004</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31000000000000005</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -7321,87 +7306,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.23</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.32</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.24000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.42000000000000004</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.37999999999999995</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="9"/>
-        <v>0.41000000000000003</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12000000000000005</v>
+        <v>0.24</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47</v>
+        <v>0.1999999999999999</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.22999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="17"/>
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -7410,87 +7395,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
         <v>0.27</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
-      </c>
-      <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>0.44</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
-        <v>0.6</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55999999999999994</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52</v>
+        <v>0.27</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.20999999999999996</v>
+        <v>0.31999999999999984</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44999999999999996</v>
+        <v>0.47</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49999999999999994</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -7499,87 +7484,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
-      </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
         <v>0.18</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49000000000000005</v>
+        <v>0.39</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33000000000000007</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19000000000000006</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32000000000000006</v>
+        <v>0.74</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>7.0000000000000062E-2</v>
+        <v>0.13</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.49000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.35000000000000003</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999991</v>
+        <v>0.26</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43999999999999995</v>
+        <v>0.4</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="16"/>
-        <v>0.33</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47000000000000003</v>
+        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -7588,87 +7573,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.47</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.42</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.36</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.56000000000000005</v>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.47</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52</v>
+        <v>0.12</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48000000000000004</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.30000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>0.38999999999999996</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.35</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.19999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999991</v>
+        <v>0.2</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4200000000000001</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -7677,87 +7662,87 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.47</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
+        <v>0.45</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12000000000000005</v>
+        <v>0.52</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>0.52999999999999992</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.24000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.33999999999999997</v>
+        <v>0.52</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.47000000000000003</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48999999999999994</v>
+        <v>0.45</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
-        <v>0.41</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.29000000000000004</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999989</v>
+        <v>0.25</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47999999999999993</v>
+        <v>0.2</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4300000000000001</v>
+        <v>0.47999999999999993</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -7766,87 +7751,87 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.01</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
-      </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36</v>
+        <v>0.64</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.59000000000000008</v>
+        <v>0.43</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.20999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.29000000000000004</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19999999999999996</v>
+        <v>0.22999999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -7855,27 +7840,27 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
@@ -7883,59 +7868,59 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22999999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48999999999999994</v>
+        <v>0.18</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49</v>
+        <v>0.14000000000000007</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42</v>
+        <v>0.72</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.12999999999999995</v>
+        <v>0.14999999999999997</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37000000000000005</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="13"/>
-        <v>0.42000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31000000000000011</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28999999999999998</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4300000000000001</v>
+        <v>0.41000000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -7944,87 +7929,87 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.09</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.36</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.29999999999999993</v>
+        <v>0.49</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.39</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6100000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31000000000000005</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47999999999999993</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.34999999999999987</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35999999999999993</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19999999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="17"/>
-        <v>0.49999999999999994</v>
+        <v>0.48000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -8033,87 +8018,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>0.08</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26000000000000006</v>
+        <v>0.51</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36</v>
+        <v>0.46</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.15000000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999993</v>
+        <v>0.22000000000000003</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.47</v>
+        <v>0.39</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4499999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.38</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43000000000000005</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="16"/>
-        <v>0.26</v>
+        <v>0.46</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="17"/>
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -8122,87 +8107,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.23</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.06</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.09</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10999999999999993</v>
+        <v>0.12000000000000005</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.49</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.77</v>
+        <v>0.27</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.35000000000000003</v>
+        <v>0.46</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39</v>
+        <v>0.6</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24000000000000005</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34</v>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4300000000000001</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49000000000000005</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="13"/>
-        <v>0.20999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22000000000000003</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35000000000000003</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="17"/>
-        <v>0.34999999999999992</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -8211,87 +8196,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.47</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="C20">
+      <c r="H20">
         <f t="shared" ca="1" si="3"/>
         <v>0.32</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.73</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53999999999999992</v>
+        <v>0.53</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.39999999999999997</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>0.28999999999999998</v>
+        <v>0.73</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.5</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33999999999999991</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31000000000000005</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.27999999999999997</v>
+        <v>0.31000000000000011</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="16"/>
-        <v>0.39999999999999997</v>
+        <v>0.24</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45999999999999996</v>
+        <v>0.1999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -8300,87 +8285,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
-      </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.79</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44</v>
+        <v>0.66999999999999993</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.71</v>
+        <v>0.35</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.25000000000000006</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41000000000000003</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48999999999999994</v>
+        <v>0.27</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="15"/>
-        <v>0.24</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="16"/>
-        <v>0.20999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43999999999999989</v>
+        <v>0.31000000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -8389,19 +8374,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.36</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.48</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
@@ -8409,19 +8394,19 @@
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.55000000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
@@ -8429,19 +8414,19 @@
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>0.44999999999999996</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0.12</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.55000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="10"/>
-        <v>0.34</v>
+        <v>0.66</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
@@ -8449,27 +8434,27 @@
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21999999999999997</v>
+        <v>0.21999999999999992</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29000000000000004</v>
+        <v>0.47</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -8478,87 +8463,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="3"/>
         <v>0.49</v>
       </c>
-      <c r="E23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
-      </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.39</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.19000000000000006</v>
+        <v>0.53</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45000000000000007</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>0.25</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.11000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28999999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42000000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="12"/>
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.44999999999999996</v>
+        <v>0.45</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="15"/>
-        <v>0.37</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="16"/>
-        <v>0.44</v>
+        <v>0.37</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28000000000000008</v>
+        <v>0.21999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -8567,11 +8552,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
@@ -8579,75 +8564,75 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="3"/>
         <v>0.26</v>
       </c>
-      <c r="F24">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.32</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31999999999999995</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.55999999999999994</v>
+        <v>0.24</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.19999999999999996</v>
+        <v>0.6</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.6100000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48000000000000004</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="13"/>
-        <v>0.48999999999999994</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.42000000000000004</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="15"/>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="16"/>
-        <v>0.42000000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19999999999999996</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -8656,87 +8641,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.03</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="D25">
+      <c r="F25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="H25">
         <f t="shared" ca="1" si="3"/>
         <v>0.4</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="F25">
-        <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
-      </c>
-      <c r="H25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24999999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.31999999999999995</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.5</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.44</v>
+        <v>0.51</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.14999999999999997</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.76</v>
+        <v>0.37</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31000000000000011</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="12"/>
-        <v>0.33999999999999997</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28000000000000003</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.26</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="15"/>
-        <v>0.48999999999999994</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="16"/>
-        <v>0.40000000000000008</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -8745,87 +8730,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.08</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.18</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.12</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.49</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.21000000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.13</v>
+        <v>0.41</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>0.43</v>
+        <v>9.0000000000000024E-2</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43000000000000005</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47999999999999993</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.23999999999999994</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21999999999999992</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="16"/>
-        <v>0.23999999999999994</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43999999999999995</v>
+        <v>0.43000000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -8834,87 +8819,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45</v>
+        <v>0.26</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30000000000000004</v>
+        <v>0.62</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18</v>
+        <v>0.27</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.55999999999999994</v>
+        <v>0.52</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
-        <v>0.48000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56999999999999995</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.32999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="12"/>
-        <v>0.37000000000000005</v>
+        <v>0.47</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28000000000000003</v>
+        <v>0.47</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.41000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.46999999999999992</v>
+        <v>0.26</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41000000000000003</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -8923,87 +8908,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.42</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.15</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48999999999999994</v>
+        <v>0.16000000000000003</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38000000000000006</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.73</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28999999999999992</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.4</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31000000000000011</v>
+        <v>0.36</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3299999999999999</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.34</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.30000000000000004</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43000000000000005</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -9012,87 +8997,87 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.43</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.34</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41000000000000003</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.40999999999999992</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49000000000000005</v>
+        <v>0.59</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.77</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.32000000000000006</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43000000000000005</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.35999999999999993</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="15"/>
-        <v>0.21999999999999992</v>
+        <v>0.4</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="16"/>
-        <v>0.3000000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20999999999999996</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -9101,87 +9086,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.24</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31999999999999995</v>
+        <v>0.3</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43000000000000005</v>
+        <v>0.43</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53999999999999992</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58000000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.28000000000000003</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.29000000000000004</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="12"/>
-        <v>0.30000000000000004</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="13"/>
-        <v>0.44999999999999996</v>
+        <v>0.23999999999999994</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29000000000000004</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>0.34999999999999987</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>0.21999999999999992</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -9190,55 +9175,55 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.27</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.24</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.62</v>
+        <v>0.26000000000000006</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27</v>
+        <v>0.52</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="10"/>
@@ -9246,31 +9231,31 @@
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="12"/>
-        <v>0.24999999999999994</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="13"/>
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35000000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="15"/>
-        <v>0.32999999999999996</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>0.20999999999999996</v>
+        <v>0.43999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -9279,11 +9264,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
@@ -9291,80 +9276,80 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>1.0000000000000009E-2</v>
+        <v>0.53</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.29000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14000000000000001</v>
+        <v>0.47000000000000008</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.33</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.39</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43999999999999995</v>
+        <v>0.38</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.4</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>0.35999999999999993</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="17"/>
-        <v>0.42000000000000004</v>
+        <v>0.39000000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/dbs/图数据库测试数据.xlsx
+++ b/dbs/图数据库测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="724" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试员打分情况" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="187">
   <si>
     <t>色泽</t>
   </si>
@@ -272,9 +272,6 @@
     <t>方便面编号1006</t>
   </si>
   <si>
-    <t>编号</t>
-  </si>
-  <si>
     <t>样品</t>
   </si>
   <si>
@@ -1068,6 +1065,14 @@
   </si>
   <si>
     <t>浓香排骨面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五谷道场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2933,16 +2938,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
         <v>168</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>170</v>
-      </c>
-      <c r="E1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2950,7 +2955,7 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2959,7 +2964,7 @@
         <v>140000</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -2967,7 +2972,7 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2976,7 +2981,7 @@
         <v>220000</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2984,7 +2989,7 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2993,7 +2998,7 @@
         <v>360000</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3001,7 +3006,7 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -3010,7 +3015,7 @@
         <v>400000</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3018,7 +3023,7 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -3027,7 +3032,7 @@
         <v>600000</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3035,7 +3040,7 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -3044,7 +3049,7 @@
         <v>880000</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -3052,7 +3057,7 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -3061,7 +3066,7 @@
         <v>140000</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -3069,7 +3074,7 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3078,7 +3083,7 @@
         <v>220000</v>
       </c>
       <c r="E9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -3086,7 +3091,7 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -3095,7 +3100,7 @@
         <v>360000</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -3103,7 +3108,7 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3112,7 +3117,7 @@
         <v>140000</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -3120,7 +3125,7 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -3129,7 +3134,7 @@
         <v>220000</v>
       </c>
       <c r="E12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -3137,7 +3142,7 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -3146,7 +3151,7 @@
         <v>360000</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -3154,7 +3159,7 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -3163,7 +3168,7 @@
         <v>140000</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -3171,7 +3176,7 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -3180,7 +3185,7 @@
         <v>220000</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -3188,7 +3193,7 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -3197,12 +3202,12 @@
         <v>220000</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3226,30 +3231,30 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>2.1800000000000002</v>
@@ -3275,7 +3280,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -3301,7 +3306,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>3.3</v>
@@ -3327,7 +3332,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>3.38</v>
@@ -3361,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3369,7 +3374,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -3387,93 +3392,93 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>109</v>
       </c>
-      <c r="Q1" t="s">
-        <v>110</v>
-      </c>
       <c r="R1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" t="s">
         <v>123</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>125</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>126</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>127</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>128</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>129</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>130</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>131</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>132</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>134</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>135</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:R13" ca="1" si="0">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
@@ -3481,23 +3486,23 @@
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
@@ -3509,7 +3514,7 @@
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
@@ -3517,7 +3522,7 @@
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
@@ -3529,11 +3534,11 @@
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f t="shared" ref="R2:AE13" ca="1" si="1">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
@@ -3541,7 +3546,7 @@
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="1"/>
@@ -3549,11 +3554,11 @@
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
@@ -3561,15 +3566,15 @@
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
@@ -3577,28 +3582,28 @@
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B13" ca="1" si="2">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
@@ -3606,7 +3611,7 @@
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
@@ -3614,67 +3619,67 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
@@ -3682,7 +3687,7 @@
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
@@ -3698,20 +3703,20 @@
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE3">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
@@ -3719,11 +3724,11 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
@@ -3731,7 +3736,7 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
@@ -3739,7 +3744,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
@@ -3747,19 +3752,19 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
@@ -3767,7 +3772,7 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
@@ -3779,47 +3784,47 @@
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="1"/>
@@ -3827,32 +3832,32 @@
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
@@ -3860,15 +3865,15 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
@@ -3876,11 +3881,11 @@
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
@@ -3892,7 +3897,7 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
@@ -3900,11 +3905,11 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
@@ -3912,7 +3917,7 @@
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
@@ -3924,23 +3929,23 @@
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="1"/>
@@ -3961,11 +3966,11 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
@@ -3977,11 +3982,11 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
@@ -3989,7 +3994,7 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
@@ -4001,7 +4006,7 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
@@ -4013,11 +4018,11 @@
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
@@ -4025,23 +4030,23 @@
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
@@ -4049,7 +4054,7 @@
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
@@ -4061,19 +4066,19 @@
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD6">
         <f t="shared" ca="1" si="1"/>
@@ -4086,15 +4091,15 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
@@ -4102,15 +4107,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
@@ -4118,7 +4123,7 @@
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
@@ -4126,7 +4131,7 @@
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
@@ -4134,7 +4139,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
@@ -4150,7 +4155,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
@@ -4158,27 +4163,27 @@
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="1"/>
@@ -4186,19 +4191,19 @@
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7">
         <f t="shared" ca="1" si="1"/>
@@ -4206,12 +4211,12 @@
       </c>
       <c r="AE7">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
@@ -4223,11 +4228,11 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
@@ -4235,7 +4240,7 @@
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
@@ -4243,7 +4248,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -4251,7 +4256,7 @@
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
@@ -4259,15 +4264,15 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
@@ -4275,7 +4280,7 @@
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
@@ -4283,27 +4288,27 @@
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="1"/>
@@ -4311,15 +4316,15 @@
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="1"/>
@@ -4327,16 +4332,16 @@
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
@@ -4356,7 +4361,7 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
@@ -4364,15 +4369,15 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
@@ -4380,7 +4385,7 @@
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
@@ -4388,11 +4393,11 @@
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
@@ -4412,27 +4417,27 @@
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="1"/>
@@ -4440,7 +4445,7 @@
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="1"/>
@@ -4448,20 +4453,20 @@
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
@@ -4473,11 +4478,11 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
@@ -4485,15 +4490,15 @@
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
@@ -4501,7 +4506,7 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
@@ -4509,7 +4514,7 @@
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
@@ -4517,23 +4522,23 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
@@ -4545,11 +4550,11 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
@@ -4557,40 +4562,40 @@
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE10">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
@@ -4598,7 +4603,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
@@ -4606,7 +4611,7 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
@@ -4614,15 +4619,15 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
@@ -4630,11 +4635,11 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
@@ -4646,11 +4651,11 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
@@ -4662,19 +4667,19 @@
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
@@ -4682,7 +4687,7 @@
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="1"/>
@@ -4690,64 +4695,64 @@
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
@@ -4763,23 +4768,23 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
@@ -4787,11 +4792,11 @@
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
@@ -4799,15 +4804,15 @@
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="1"/>
@@ -4815,48 +4820,48 @@
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
@@ -4864,39 +4869,39 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
@@ -4908,11 +4913,11 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
@@ -4920,19 +4925,19 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="1"/>
@@ -4944,19 +4949,19 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="1"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE13">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15"/>
@@ -4971,8 +4976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4985,30 +4990,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B2" s="15">
         <v>1001</v>
@@ -5017,16 +5022,16 @@
         <v>20070528761</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="15">
         <v>1002</v>
@@ -5035,38 +5040,38 @@
         <v>20070810671</v>
       </c>
       <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="15">
         <v>1003</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" s="15">
         <v>1004</v>
@@ -5075,18 +5080,18 @@
         <v>2007100312</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>26</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" s="15">
         <v>1005</v>
@@ -5095,18 +5100,18 @@
         <v>20070917561</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B7" s="15">
         <v>1006</v>
@@ -5115,18 +5120,18 @@
         <v>2007092612</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="15">
         <v>1007</v>
@@ -5135,18 +5140,18 @@
         <v>200706201035</v>
       </c>
       <c r="D8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>36</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9" s="15">
         <v>1008</v>
@@ -5155,18 +5160,18 @@
         <v>200706190122</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>38</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="15">
         <v>1009</v>
@@ -5175,18 +5180,18 @@
         <v>200706190132</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>41</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11" s="15">
         <v>1010</v>
@@ -5195,18 +5200,18 @@
         <v>200706190042</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12" s="15">
         <v>1011</v>
@@ -5215,18 +5220,18 @@
         <v>200706207074</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>47</v>
-      </c>
       <c r="G12" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="15">
         <v>1012</v>
@@ -5235,319 +5240,319 @@
         <v>200706191114</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="15">
         <v>1013</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B15" s="15">
         <v>1014</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="15">
         <v>1015</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B17" s="15">
         <v>1016</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="15">
         <v>1017</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="15">
         <v>1018</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="E19" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B20" s="15">
         <v>1019</v>
       </c>
       <c r="C20" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="E20" s="25" t="s">
         <v>64</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B21" s="15">
         <v>1020</v>
       </c>
       <c r="C21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="E21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="15">
         <v>1021</v>
       </c>
       <c r="C22" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="15">
         <v>1022</v>
       </c>
       <c r="C23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="15">
         <v>1023</v>
       </c>
       <c r="C24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="E24" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" s="15">
         <v>1024</v>
       </c>
       <c r="C25" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B26" s="15">
         <v>1025</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B27" s="15">
         <v>1026</v>
       </c>
       <c r="C27" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>82</v>
-      </c>
       <c r="E27" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B28" s="15">
         <v>1027</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>84</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B29" s="15">
         <v>1028</v>
       </c>
       <c r="C29" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="28" t="s">
-        <v>86</v>
-      </c>
       <c r="E29" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B30" s="15">
         <v>1029</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31" s="15">
         <v>1030</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.15">
@@ -5577,52 +5582,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" t="s">
-        <v>155</v>
-      </c>
-      <c r="K1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L1" t="s">
-        <v>157</v>
-      </c>
-      <c r="M1" t="s">
-        <v>158</v>
-      </c>
-      <c r="N1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -5634,55 +5639,55 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,200)/10</f>
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="D2">
         <f ca="1">C2+RANDBETWEEN(10,100)/10</f>
-        <v>22.700000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="E2">
         <f ca="1">D2+RANDBETWEEN(10,100)/10</f>
-        <v>28.6</v>
+        <v>25.7</v>
       </c>
       <c r="F2">
         <f ca="1">E2+RANDBETWEEN(10,100)/10</f>
-        <v>33.200000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,100)/10</f>
-        <v>32.900000000000006</v>
+        <v>36.5</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,100)/10</f>
-        <v>42.600000000000009</v>
+        <v>44.8</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,100)/10</f>
-        <v>48.900000000000006</v>
+        <v>53.4</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:K11" ca="1" si="0">I2-RANDBETWEEN(10,50)/10</f>
-        <v>44.400000000000006</v>
+        <v>52.4</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>42.2</v>
+        <v>50.9</v>
       </c>
       <c r="L2">
         <f ca="1">K2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>25.700000000000003</v>
+        <v>25.15</v>
       </c>
       <c r="M2">
         <f ca="1">L2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.650000000000002</v>
+        <v>22.074999999999999</v>
       </c>
       <c r="N2">
         <f ca="1">M2/2+RANDBETWEEN(-50,100)/10</f>
-        <v>8.4250000000000007</v>
+        <v>16.4375</v>
       </c>
       <c r="O2">
         <f ca="1">N2/2</f>
-        <v>4.2125000000000004</v>
+        <v>8.21875</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -5697,55 +5702,55 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C16" ca="1" si="1">RANDBETWEEN(10,200)/10</f>
-        <v>17.2</v>
+        <v>1.4</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:F16" ca="1" si="2">C3+RANDBETWEEN(10,100)/10</f>
-        <v>27.1</v>
+        <v>7.1</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="2"/>
-        <v>29.700000000000003</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="2"/>
-        <v>39.1</v>
+        <v>18.799999999999997</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:I16" ca="1" si="3">F3+RANDBETWEEN(-10,100)/10</f>
-        <v>41.4</v>
+        <v>20.999999999999996</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="3"/>
-        <v>46.9</v>
+        <v>26.099999999999994</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="3"/>
-        <v>46.1</v>
+        <v>34.499999999999993</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>41.800000000000004</v>
+        <v>32.79999999999999</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3" ca="1" si="4">J3-RANDBETWEEN(10,50)/10</f>
-        <v>40.800000000000004</v>
+        <v>30.79999999999999</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:N3" ca="1" si="5">K3/2+RANDBETWEEN(-50,100)/10</f>
-        <v>16.500000000000004</v>
+        <v>10.399999999999995</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="5"/>
-        <v>12.150000000000002</v>
+        <v>0.89999999999999769</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2750000000000012</v>
+        <v>2.5499999999999989</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O16" ca="1" si="6">N3/2</f>
-        <v>2.6375000000000006</v>
+        <v>1.2749999999999995</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -5760,55 +5765,55 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5</v>
+        <v>14.1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="2"/>
-        <v>13.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>21.4</v>
+        <v>25.700000000000003</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>24.7</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="3"/>
-        <v>27.2</v>
+        <v>40.900000000000006</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>49.7</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>31.3</v>
+        <v>45.7</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4" ca="1" si="7">J4-RANDBETWEEN(10,50)/10</f>
-        <v>26.5</v>
+        <v>41.5</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:N4" ca="1" si="8">K4/2+RANDBETWEEN(-50,100)/10</f>
-        <v>14.15</v>
+        <v>24.85</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="8"/>
-        <v>5.375</v>
+        <v>16.324999999999999</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="8"/>
-        <v>11.7875</v>
+        <v>17.462499999999999</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="6"/>
-        <v>5.8937499999999998</v>
+        <v>8.7312499999999993</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -5823,55 +5828,55 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>13.4</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>16.899999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="2"/>
-        <v>18.5</v>
+        <v>13.4</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>20.100000000000001</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>20.100000000000001</v>
+        <v>29.2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="3"/>
-        <v>28.6</v>
+        <v>32.6</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>26.9</v>
+        <v>37.6</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5" ca="1" si="9">J5-RANDBETWEEN(10,50)/10</f>
-        <v>25.599999999999998</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:N5" ca="1" si="10">K5/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.2</v>
+        <v>17.25</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="10"/>
-        <v>10.6</v>
+        <v>4.625</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="10"/>
-        <v>3.3</v>
+        <v>9.7125000000000004</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="6"/>
-        <v>1.65</v>
+        <v>4.8562500000000002</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -5886,55 +5891,55 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>10.4</v>
+        <v>12.9</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>11.9</v>
+        <v>21.4</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>23.099999999999998</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>20.8</v>
+        <v>28.799999999999997</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="3"/>
-        <v>27.599999999999998</v>
+        <v>33.1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="3"/>
-        <v>28.4</v>
+        <v>38.1</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>26.2</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6" ca="1" si="11">J6-RANDBETWEEN(10,50)/10</f>
-        <v>25</v>
+        <v>33.800000000000004</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:N6" ca="1" si="12">K6/2+RANDBETWEEN(-50,100)/10</f>
-        <v>12.8</v>
+        <v>24.300000000000004</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="12"/>
-        <v>10.4</v>
+        <v>8.8500000000000014</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="12"/>
-        <v>9.4</v>
+        <v>3.9250000000000007</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="6"/>
-        <v>4.7</v>
+        <v>1.9625000000000004</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5949,55 +5954,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>19.2</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>27.7</v>
+        <v>11.399999999999999</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="2"/>
-        <v>35.299999999999997</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>36.799999999999997</v>
+        <v>17.599999999999998</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>45.099999999999994</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="3"/>
-        <v>44.199999999999996</v>
+        <v>26.5</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="3"/>
-        <v>53.699999999999996</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>49.499999999999993</v>
+        <v>28.599999999999998</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7" ca="1" si="13">J7-RANDBETWEEN(10,50)/10</f>
-        <v>47.79999999999999</v>
+        <v>25.499999999999996</v>
       </c>
       <c r="L7">
         <f t="shared" ref="L7:N7" ca="1" si="14">K7/2+RANDBETWEEN(-50,100)/10</f>
-        <v>25.199999999999996</v>
+        <v>15.549999999999997</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="14"/>
-        <v>10.299999999999997</v>
+        <v>8.5749999999999993</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="14"/>
-        <v>1.9499999999999984</v>
+        <v>4.0874999999999995</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="6"/>
-        <v>0.9749999999999992</v>
+        <v>2.0437499999999997</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -6012,55 +6017,55 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>19.600000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="2"/>
-        <v>30.3</v>
+        <v>26.200000000000003</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>38.299999999999997</v>
+        <v>30.800000000000004</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>44.9</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="3"/>
+        <v>48.2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="3"/>
         <v>50.1</v>
       </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="3"/>
-        <v>57.800000000000004</v>
-      </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>55.800000000000004</v>
+        <v>47.4</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8" ca="1" si="15">J8-RANDBETWEEN(10,50)/10</f>
-        <v>54.1</v>
+        <v>46.199999999999996</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:N8" ca="1" si="16">K8/2+RANDBETWEEN(-50,100)/10</f>
-        <v>30.25</v>
+        <v>20.799999999999997</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="16"/>
-        <v>21.925000000000001</v>
+        <v>15.099999999999998</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="16"/>
-        <v>8.7624999999999993</v>
+        <v>10.049999999999999</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="6"/>
-        <v>4.3812499999999996</v>
+        <v>5.0249999999999995</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -6075,55 +6080,55 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9</v>
+        <v>1.8</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>17.899999999999999</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="2"/>
-        <v>22.599999999999998</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
+        <v>25.400000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="3"/>
+        <v>24.700000000000003</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>34.6</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ca="1" si="3"/>
+        <v>35.4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
         <v>31.099999999999998</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="3"/>
-        <v>30.599999999999998</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="3"/>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="3"/>
-        <v>42.4</v>
-      </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>41.1</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9" ca="1" si="17">J9-RANDBETWEEN(10,50)/10</f>
-        <v>36.1</v>
+        <v>29.9</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:N9" ca="1" si="18">K9/2+RANDBETWEEN(-50,100)/10</f>
-        <v>27.65</v>
+        <v>10.95</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="18"/>
-        <v>9.0249999999999986</v>
+        <v>9.2749999999999986</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="18"/>
-        <v>5.9124999999999996</v>
+        <v>8.5374999999999996</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="6"/>
-        <v>2.9562499999999998</v>
+        <v>4.2687499999999998</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -6138,55 +6143,55 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>17.3</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>19.2</v>
+        <v>17.5</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="2"/>
-        <v>25.5</v>
+        <v>27.1</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>27.8</v>
+        <v>35.6</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="3"/>
-        <v>36.4</v>
+        <v>40.400000000000006</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="3"/>
-        <v>46.099999999999994</v>
+        <v>50.000000000000007</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>43.199999999999996</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="K10">
         <f t="shared" ref="K10" ca="1" si="19">J10-RANDBETWEEN(10,50)/10</f>
-        <v>40.599999999999994</v>
+        <v>46.800000000000004</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:N10" ca="1" si="20">K10/2+RANDBETWEEN(-50,100)/10</f>
-        <v>17.799999999999997</v>
+        <v>22.900000000000002</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="20"/>
-        <v>17.599999999999998</v>
+        <v>13.850000000000001</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="20"/>
-        <v>8.9999999999999982</v>
+        <v>14.225000000000001</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="6"/>
-        <v>4.4999999999999991</v>
+        <v>7.1125000000000007</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -6201,55 +6206,55 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>11.7</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="2"/>
-        <v>19.399999999999999</v>
+        <v>26.3</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>26.2</v>
+        <v>30.6</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>28.599999999999998</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="3"/>
-        <v>29.999999999999996</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="3"/>
-        <v>30.699999999999996</v>
+        <v>48.100000000000009</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>29.399999999999995</v>
+        <v>46.900000000000006</v>
       </c>
       <c r="K11">
         <f t="shared" ref="K11" ca="1" si="21">J11-RANDBETWEEN(10,50)/10</f>
-        <v>27.499999999999996</v>
+        <v>42.500000000000007</v>
       </c>
       <c r="L11">
         <f t="shared" ref="L11:N11" ca="1" si="22">K11/2+RANDBETWEEN(-50,100)/10</f>
-        <v>20.849999999999998</v>
+        <v>18.650000000000002</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="22"/>
-        <v>18.824999999999999</v>
+        <v>13.625</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4124999999999996</v>
+        <v>14.4125</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="6"/>
-        <v>3.7062499999999998</v>
+        <v>7.2062499999999998</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -6264,55 +6269,55 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>5.4</v>
+        <v>15.9</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="2"/>
-        <v>18.8</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>31.9</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>26.1</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="3"/>
-        <v>31.200000000000003</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="3"/>
-        <v>40.700000000000003</v>
+        <v>38.699999999999996</v>
       </c>
       <c r="J12">
         <f ca="1">I12-RANDBETWEEN(10,50)/10</f>
-        <v>39.1</v>
+        <v>35.199999999999996</v>
       </c>
       <c r="K12">
         <f t="shared" ref="K12" ca="1" si="23">J12-RANDBETWEEN(10,50)/10</f>
-        <v>35.800000000000004</v>
+        <v>30.599999999999994</v>
       </c>
       <c r="L12">
         <f t="shared" ref="L12:N12" ca="1" si="24">K12/2+RANDBETWEEN(-50,100)/10</f>
-        <v>21.700000000000003</v>
+        <v>11.199999999999998</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="24"/>
-        <v>10.150000000000002</v>
+        <v>12.2</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="24"/>
-        <v>1.1750000000000012</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.58750000000000058</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -6327,55 +6332,55 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6999999999999993</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>16.100000000000001</v>
+        <v>22.9</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="2"/>
-        <v>23.400000000000002</v>
+        <v>30.2</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>32.700000000000003</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>33.700000000000003</v>
+        <v>43.1</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="3"/>
-        <v>37.800000000000004</v>
+        <v>43.6</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="3"/>
-        <v>42.500000000000007</v>
+        <v>50.2</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13:K16" ca="1" si="25">I13-RANDBETWEEN(10,50)/10</f>
-        <v>40.500000000000007</v>
+        <v>46.2</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="25"/>
-        <v>36.20000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="L13">
         <f t="shared" ref="L13:N13" ca="1" si="26">K13/2+RANDBETWEEN(-50,100)/10</f>
-        <v>13.800000000000004</v>
+        <v>25.55</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="26"/>
-        <v>7.5000000000000018</v>
+        <v>12.575000000000001</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="26"/>
-        <v>10.55</v>
+        <v>7.7875000000000005</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2750000000000004</v>
+        <v>3.8937500000000003</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -6390,55 +6395,55 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>16.7</v>
+        <v>1.8</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>20.3</v>
+        <v>8.6</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="2"/>
-        <v>21.900000000000002</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>26.200000000000003</v>
+        <v>25.299999999999997</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>36.200000000000003</v>
+        <v>32.099999999999994</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="3"/>
-        <v>36.6</v>
+        <v>38.999999999999993</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="3"/>
-        <v>38.9</v>
+        <v>45.79999999999999</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="25"/>
-        <v>37.5</v>
+        <v>43.899999999999991</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="25"/>
-        <v>35</v>
+        <v>38.899999999999991</v>
       </c>
       <c r="L14">
         <f t="shared" ref="L14:N14" ca="1" si="27">K14/2+RANDBETWEEN(-50,100)/10</f>
-        <v>17</v>
+        <v>17.049999999999997</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="27"/>
-        <v>8.8000000000000007</v>
+        <v>5.9249999999999989</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="27"/>
-        <v>12.9</v>
+        <v>3.9624999999999995</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="6"/>
-        <v>6.45</v>
+        <v>1.9812499999999997</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -6453,55 +6458,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>7.3</v>
+        <v>14.6</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>15.3</v>
+        <v>17.7</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>19.3</v>
+        <v>25.6</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>27.2</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="3"/>
-        <v>30.099999999999998</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="3"/>
-        <v>30.2</v>
+        <v>43.300000000000004</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="25"/>
-        <v>26.9</v>
+        <v>42.2</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="25"/>
-        <v>25.5</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="L15">
         <f t="shared" ref="L15:N15" ca="1" si="28">K15/2+RANDBETWEEN(-50,100)/10</f>
-        <v>17.850000000000001</v>
+        <v>18.200000000000003</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="28"/>
-        <v>17.524999999999999</v>
+        <v>7.1000000000000014</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="28"/>
-        <v>18.362499999999997</v>
+        <v>1.8500000000000008</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="6"/>
-        <v>9.1812499999999986</v>
+        <v>0.92500000000000038</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -6516,55 +6521,55 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>9.6000000000000014</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>16.100000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>17.100000000000001</v>
+        <v>14.299999999999999</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>16.700000000000003</v>
+        <v>24.2</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="3"/>
-        <v>21.1</v>
+        <v>30.5</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="3"/>
-        <v>22.400000000000002</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="25"/>
-        <v>19.3</v>
+        <v>32.300000000000004</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="25"/>
-        <v>15.9</v>
+        <v>29.500000000000004</v>
       </c>
       <c r="L16">
         <f t="shared" ref="L16:N16" ca="1" si="29">K16/2+RANDBETWEEN(-50,100)/10</f>
-        <v>3.6500000000000004</v>
+        <v>24.75</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="29"/>
-        <v>5.125</v>
+        <v>9.875</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="29"/>
-        <v>-0.73749999999999982</v>
+        <v>1.2374999999999998</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.36874999999999991</v>
+        <v>0.61874999999999991</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -6572,17 +6577,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -6603,78 +6608,78 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I1" t="s">
         <v>144</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>145</v>
-      </c>
-      <c r="P1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
         <v>137</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>138</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>140</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>142</v>
       </c>
-      <c r="H2" t="s">
-        <v>143</v>
-      </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>138</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>139</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>140</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>141</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>142</v>
       </c>
-      <c r="O2" t="s">
-        <v>143</v>
-      </c>
       <c r="P2" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q2" t="s">
         <v>137</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>138</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>139</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>140</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>141</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>142</v>
-      </c>
-      <c r="V2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -6683,87 +6688,87 @@
       </c>
       <c r="B3">
         <f ca="1">RANDBETWEEN(0,50)/100</f>
-        <v>0.35</v>
+        <v>0.27</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:H18" ca="1" si="0">RANDBETWEEN(0,50)/100</f>
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(50,80)/100-B3</f>
-        <v>0.45000000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:O3" ca="1" si="1">RANDBETWEEN(50,80)/100-C3</f>
-        <v>0.26</v>
+        <v>0.75</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.21000000000000002</v>
+        <v>0.30999999999999994</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39999999999999997</v>
+        <v>0.06</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22999999999999998</v>
+        <v>0.19000000000000006</v>
       </c>
       <c r="P3">
         <f ca="1">1-B3-I3</f>
-        <v>0.19999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:V3" ca="1" si="2">1-C3-J3</f>
-        <v>0.48</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47999999999999993</v>
+        <v>0.46</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49999999999999994</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29000000000000004</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -6772,55 +6777,55 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:H32" ca="1" si="3">RANDBETWEEN(0,50)/100</f>
-        <v>0.17</v>
+        <v>0.37</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.41</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
+        <v>0.44</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
-      </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.22</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I32" ca="1" si="4">RANDBETWEEN(50,80)/100-B4</f>
-        <v>0.54999999999999993</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J32" ca="1" si="5">RANDBETWEEN(50,80)/100-C4</f>
-        <v>0.25000000000000006</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K32" ca="1" si="6">RANDBETWEEN(50,80)/100-D4</f>
-        <v>0.61</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" ca="1" si="7">RANDBETWEEN(50,80)/100-E4</f>
-        <v>0.61</v>
+        <v>0.2</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M32" ca="1" si="8">RANDBETWEEN(50,80)/100-F4</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N32" ca="1" si="9">RANDBETWEEN(50,80)/100-G4</f>
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O32" ca="1" si="10">RANDBETWEEN(50,80)/100-H4</f>
@@ -6828,31 +6833,31 @@
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P32" ca="1" si="11">1-B4-I4</f>
-        <v>0.28000000000000003</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="Q4">
         <f t="shared" ref="Q4:Q32" ca="1" si="12">1-C4-J4</f>
-        <v>0.4499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R32" ca="1" si="13">1-D4-K4</f>
-        <v>0.25</v>
+        <v>0.29000000000000009</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S32" ca="1" si="14">1-E4-L4</f>
-        <v>0.33999999999999997</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="T4">
         <f t="shared" ref="T4:T32" ca="1" si="15">1-F4-M4</f>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="U4">
         <f t="shared" ref="U4:U32" ca="1" si="16">1-G4-N4</f>
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V32" ca="1" si="17">1-H4-O4</f>
-        <v>0.49</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -6861,87 +6866,87 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.08</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.38</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26</v>
+        <v>0.66</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="6"/>
-        <v>0.32</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="7"/>
-        <v>0.39</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57000000000000006</v>
+        <v>0.49</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="10"/>
-        <v>0.36</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="11"/>
-        <v>0.5</v>
+        <v>0.26</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41000000000000003</v>
+        <v>0.47999999999999993</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27000000000000007</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="14"/>
-        <v>0.49</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="16"/>
-        <v>0.36999999999999988</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="17"/>
-        <v>0.5</v>
+        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -6950,87 +6955,87 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49</v>
+        <v>0.18</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.48</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.01</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.51</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12</v>
+        <v>0.45</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45000000000000007</v>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="8"/>
-        <v>0.53</v>
+        <v>0.61</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="9"/>
-        <v>0.42000000000000004</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56999999999999995</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="13"/>
-        <v>0.49</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31999999999999995</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="15"/>
-        <v>0.22999999999999998</v>
+        <v>0.38</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="16"/>
-        <v>0.45999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43000000000000005</v>
+        <v>0.42000000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -7039,39 +7044,39 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="6"/>
@@ -7079,47 +7084,47 @@
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25999999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="8"/>
-        <v>0.23000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="9"/>
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34999999999999992</v>
+        <v>0.24</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31000000000000005</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="13"/>
-        <v>0.27</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="14"/>
-        <v>0.3000000000000001</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43999999999999989</v>
+        <v>0.27</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="16"/>
-        <v>0.38999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41000000000000003</v>
+        <v>0.31000000000000011</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -7128,87 +7133,87 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.43</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46</v>
+        <v>0.13999999999999996</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="8"/>
-        <v>0.10999999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44000000000000006</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999993</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="12"/>
-        <v>0.1999999999999999</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="13"/>
-        <v>0.22999999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="16"/>
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43999999999999995</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -7217,87 +7222,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.08</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.18</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44000000000000006</v>
+        <v>0.5</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="6"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14000000000000007</v>
+        <v>0.47</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="9"/>
-        <v>0.34000000000000008</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="10"/>
-        <v>0.62000000000000011</v>
+        <v>0.38</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="11"/>
-        <v>0.44999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31000000000000005</v>
+        <v>0.27</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43000000000000005</v>
+        <v>0.26</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32999999999999996</v>
+        <v>0.25</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="16"/>
-        <v>0.43999999999999995</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19999999999999996</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -7306,87 +7311,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.13</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.06</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22999999999999998</v>
+        <v>0.30999999999999994</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24999999999999994</v>
+        <v>0.46</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="7"/>
-        <v>0.48000000000000004</v>
+        <v>0.53</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="8"/>
-        <v>0.54999999999999993</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="9"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.18000000000000005</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="10"/>
-        <v>0.24</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43</v>
+        <v>0.46999999999999992</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="14"/>
-        <v>0.1999999999999999</v>
+        <v>0.37</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="15"/>
-        <v>0.43000000000000005</v>
+        <v>0.31000000000000005</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="16"/>
-        <v>0.5</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="17"/>
-        <v>0.48</v>
+        <v>0.4499999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -7395,39 +7400,39 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.03</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
         <v>0.31</v>
       </c>
-      <c r="C11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.06</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
-      </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.44</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44</v>
+        <v>0.23000000000000004</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62000000000000011</v>
+        <v>0.76</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="6"/>
@@ -7435,47 +7440,47 @@
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="7"/>
-        <v>0.61</v>
+        <v>0.52</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30000000000000004</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="9"/>
-        <v>0.27</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44999999999999996</v>
+        <v>0.12999999999999995</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="11"/>
-        <v>0.24999999999999994</v>
+        <v>0.4499999999999999</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31999999999999984</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="13"/>
-        <v>0.43000000000000005</v>
+        <v>0.4</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="14"/>
-        <v>0.31000000000000005</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="15"/>
-        <v>0.47</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="16"/>
-        <v>0.47</v>
+        <v>0.20999999999999991</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="17"/>
-        <v>0.28000000000000003</v>
+        <v>0.4300000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -7484,87 +7489,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.39</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39</v>
+        <v>0.5</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45000000000000007</v>
+        <v>0.37</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.57000000000000006</v>
+        <v>0.30999999999999994</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="7"/>
-        <v>0.74</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="9"/>
-        <v>0.51</v>
+        <v>0.61</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43000000000000005</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="11"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.31999999999999995</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="13"/>
-        <v>0.31999999999999995</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="14"/>
-        <v>0.22999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="16"/>
-        <v>0.31000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32999999999999996</v>
+        <v>0.29000000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -7573,87 +7578,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ca="1" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="C13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
-      </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="4"/>
-        <v>7.0000000000000062E-2</v>
+        <v>8.0000000000000016E-2</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="6"/>
-        <v>0.47</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="8"/>
-        <v>0.38000000000000006</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="9"/>
-        <v>0.37</v>
+        <v>0.34999999999999992</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="10"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="11"/>
-        <v>0.45999999999999996</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="13"/>
-        <v>0.39</v>
+        <v>0.35</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="15"/>
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="16"/>
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="17"/>
-        <v>0.46</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -7662,7 +7667,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.19</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
@@ -7670,51 +7675,51 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
+        <v>0.39</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
-      </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.44</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52</v>
+        <v>0.37</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52999999999999992</v>
+        <v>0.26999999999999996</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="7"/>
-        <v>0.28000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="8"/>
-        <v>0.52</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="9"/>
-        <v>0.35000000000000003</v>
+        <v>0.71</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="10"/>
-        <v>0.45</v>
+        <v>0.12999999999999995</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="11"/>
@@ -7722,27 +7727,27 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.35</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30000000000000004</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="14"/>
-        <v>0.25</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="15"/>
-        <v>0.45999999999999996</v>
+        <v>0.39</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="16"/>
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="17"/>
-        <v>0.47999999999999993</v>
+        <v>0.4300000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -7751,87 +7756,87 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.06</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.01</v>
+        <v>0.44</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.04</v>
+        <v>0.48</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="4"/>
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="6"/>
-        <v>0.64</v>
+        <v>0.11000000000000004</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67999999999999994</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57000000000000006</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="9"/>
-        <v>0.56999999999999995</v>
+        <v>0.46</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="12"/>
-        <v>0.40000000000000008</v>
+        <v>0.36999999999999988</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="13"/>
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="14"/>
-        <v>0.28000000000000003</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19999999999999996</v>
+        <v>0.36999999999999988</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="16"/>
-        <v>0.29000000000000004</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22999999999999993</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -7840,7 +7845,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
@@ -7848,79 +7853,79 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.26</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.31999999999999995</v>
+        <v>0.72000000000000008</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="7"/>
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="8"/>
-        <v>0.14000000000000007</v>
+        <v>0.69</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="9"/>
-        <v>0.72</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="10"/>
-        <v>0.14999999999999997</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="11"/>
-        <v>0.31000000000000005</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="12"/>
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="13"/>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38000000000000006</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="15"/>
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="16"/>
-        <v>0.20999999999999996</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="17"/>
-        <v>0.41000000000000009</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -7929,63 +7934,63 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
+        <v>0.23</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.04</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="0"/>
         <v>0.36</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.18</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
-      </c>
-      <c r="H17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.46</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.49</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
+        <v>0.52</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="6"/>
-        <v>0.44</v>
+        <v>0.62</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58000000000000007</v>
+        <v>0.38</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="8"/>
-        <v>0.57000000000000006</v>
+        <v>0.64</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="9"/>
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="10"/>
-        <v>0.06</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="11"/>
-        <v>0.42000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="12"/>
@@ -7993,23 +7998,23 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38000000000000006</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="14"/>
-        <v>0.34999999999999987</v>
+        <v>0.35</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="15"/>
-        <v>0.19999999999999996</v>
+        <v>0.36</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28000000000000003</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="17"/>
-        <v>0.48000000000000004</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -8018,87 +8023,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.19</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>0.21</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="4"/>
-        <v>0.35000000000000003</v>
+        <v>0.53</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39</v>
+        <v>0.34000000000000008</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51</v>
+        <v>0.17999999999999994</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="9"/>
-        <v>0.46</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="10"/>
-        <v>0.47</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.39</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="13"/>
-        <v>0.26</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="14"/>
-        <v>0.38</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="15"/>
-        <v>0.35000000000000003</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="16"/>
-        <v>0.46</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="17"/>
-        <v>0.26</v>
+        <v>0.32999999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -8107,67 +8112,67 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.24</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.24</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.12000000000000005</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49</v>
+        <v>0.65999999999999992</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="9"/>
-        <v>0.57000000000000006</v>
+        <v>0.25</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="10"/>
-        <v>4.0000000000000036E-2</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="11"/>
-        <v>0.47000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="12"/>
-        <v>0.28000000000000003</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="13"/>
@@ -8175,19 +8180,19 @@
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47999999999999993</v>
+        <v>0.38</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="16"/>
-        <v>0.31999999999999995</v>
+        <v>0.49</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="17"/>
-        <v>0.45999999999999996</v>
+        <v>0.35999999999999993</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -8196,87 +8201,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.04</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.38</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44999999999999996</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31000000000000005</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="6"/>
-        <v>6.0000000000000053E-2</v>
+        <v>0.76</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="8"/>
-        <v>0.22999999999999993</v>
+        <v>0.18000000000000005</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="9"/>
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="10"/>
-        <v>0.48000000000000004</v>
+        <v>0.48999999999999994</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21999999999999997</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="13"/>
-        <v>0.45999999999999996</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="15"/>
-        <v>0.31000000000000011</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="16"/>
-        <v>0.24</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="17"/>
-        <v>0.1999999999999999</v>
+        <v>0.4300000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -8285,87 +8290,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.37</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.35</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79</v>
+        <v>0.38</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="6"/>
-        <v>0.51</v>
+        <v>0.16999999999999993</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66999999999999993</v>
+        <v>0.62</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="8"/>
-        <v>0.35</v>
+        <v>0.53</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6</v>
+        <v>0.39</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="10"/>
-        <v>0.20999999999999996</v>
+        <v>0.51</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="11"/>
-        <v>0.38</v>
+        <v>0.43999999999999989</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="12"/>
-        <v>0.19999999999999996</v>
+        <v>0.27</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="13"/>
-        <v>0.30000000000000004</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27</v>
+        <v>0.38</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="15"/>
-        <v>0.29000000000000004</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="17"/>
-        <v>0.31000000000000005</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -8374,87 +8379,87 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
         <v>0.36</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.47</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.17</v>
-      </c>
-      <c r="H22">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.27</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44</v>
+        <v>0.64</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.17000000000000004</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12</v>
+        <v>0.10000000000000003</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="9"/>
-        <v>0.44999999999999996</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="10"/>
-        <v>0.66</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="11"/>
-        <v>0.37</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="12"/>
-        <v>0.21999999999999992</v>
+        <v>0.35</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="13"/>
-        <v>0.4</v>
+        <v>0.20999999999999991</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="14"/>
-        <v>0.47</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000003</v>
+        <v>0.44</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="16"/>
-        <v>0.38</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999997</v>
+        <v>0.33999999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -8463,7 +8468,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.06</v>
+        <v>0.32</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
@@ -8471,7 +8476,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.49</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
@@ -8479,71 +8484,71 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.65999999999999992</v>
+        <v>0.34</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61</v>
+        <v>0.39</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>0.53</v>
+        <v>0.20999999999999996</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.2</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="8"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="9"/>
-        <v>0.24</v>
+        <v>0.15999999999999998</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="10"/>
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="11"/>
-        <v>0.28000000000000003</v>
+        <v>0.33999999999999991</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25</v>
+        <v>0.47</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="13"/>
-        <v>0.28000000000000003</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="14"/>
-        <v>0.45</v>
+        <v>0.34</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000003</v>
+        <v>0.31</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37</v>
+        <v>0.41000000000000009</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -8552,87 +8557,87 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.47</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>0.08</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.04</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26999999999999996</v>
+        <v>0.71</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>0.7</v>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="9"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="10"/>
-        <v>0.13</v>
+        <v>0.51</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="11"/>
-        <v>0.3000000000000001</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="12"/>
-        <v>0.27</v>
+        <v>0.3299999999999999</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="13"/>
-        <v>0.22999999999999998</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="14"/>
-        <v>0.32999999999999996</v>
+        <v>0.49000000000000005</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="15"/>
-        <v>0.5</v>
+        <v>0.3199999999999999</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="16"/>
-        <v>0.37</v>
+        <v>0.49</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="17"/>
-        <v>0.38</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -8641,87 +8646,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.03</v>
+        <v>0.13</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>0.27999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="7"/>
-        <v>0.53999999999999992</v>
+        <v>0.69</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="8"/>
-        <v>0.51</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="9"/>
-        <v>0.43000000000000005</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="10"/>
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="12"/>
-        <v>0.45999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="13"/>
-        <v>0.3000000000000001</v>
+        <v>0.37</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="15"/>
-        <v>0.20999999999999996</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="16"/>
-        <v>0.21999999999999997</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22999999999999998</v>
+        <v>0.31000000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -8730,87 +8735,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.5</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49</v>
+        <v>0.09</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44</v>
+        <v>0.75</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>0.23999999999999994</v>
+        <v>0.19</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>0.41</v>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="7"/>
-        <v>9.0000000000000024E-2</v>
+        <v>0.25</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="8"/>
-        <v>0.45999999999999996</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="9"/>
-        <v>0.58000000000000007</v>
+        <v>0.71</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="10"/>
-        <v>7.999999999999996E-2</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="11"/>
-        <v>0.48000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="12"/>
-        <v>0.3000000000000001</v>
+        <v>0.40000000000000008</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="13"/>
-        <v>0.41000000000000009</v>
+        <v>0.4</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="14"/>
-        <v>0.48000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="15"/>
-        <v>0.42000000000000004</v>
+        <v>0.43000000000000005</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="16"/>
-        <v>0.19999999999999996</v>
+        <v>0.21999999999999997</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43000000000000005</v>
+        <v>0.31999999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -8819,47 +8824,47 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.34</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27</v>
+        <v>0.35</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>0.52</v>
+        <v>0.37999999999999995</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="7"/>
-        <v>0.63</v>
+        <v>0.43</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="8"/>
@@ -8867,39 +8872,39 @@
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="9"/>
-        <v>0.32</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="10"/>
-        <v>0.56000000000000005</v>
+        <v>0.34</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="11"/>
-        <v>0.33999999999999997</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="12"/>
-        <v>0.47</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="14"/>
-        <v>0.27</v>
+        <v>0.24999999999999994</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="15"/>
-        <v>0.26</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49000000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="17"/>
-        <v>0.19999999999999996</v>
+        <v>0.3199999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -8908,87 +8913,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.23</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.5</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.44999999999999996</v>
+        <v>0.42</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34</v>
+        <v>0.11000000000000004</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6399999999999999</v>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="8"/>
-        <v>0.24000000000000005</v>
+        <v>0.51</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="10"/>
-        <v>0.44999999999999996</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="11"/>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="12"/>
-        <v>0.36</v>
+        <v>0.39</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="13"/>
-        <v>0.25000000000000006</v>
+        <v>0.45</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="14"/>
-        <v>0.29000000000000004</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="15"/>
-        <v>0.34</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="16"/>
-        <v>0.29000000000000004</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="17"/>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -8997,87 +9002,87 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41</v>
+        <v>0.16</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.03</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34</v>
+        <v>0.06</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.01</v>
+        <v>0.36</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25000000000000006</v>
+        <v>0.52</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>0.10000000000000003</v>
+        <v>0.74</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="7"/>
-        <v>0.3</v>
+        <v>0.6100000000000001</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="8"/>
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="9"/>
-        <v>0.26</v>
+        <v>0.61</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="10"/>
-        <v>0.69000000000000006</v>
+        <v>0.65</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="11"/>
-        <v>0.34</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="12"/>
-        <v>0.32000000000000006</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="13"/>
-        <v>0.47000000000000003</v>
+        <v>0.22999999999999998</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="14"/>
-        <v>0.35999999999999993</v>
+        <v>0.32999999999999985</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="16"/>
-        <v>0.49</v>
+        <v>0.26</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="17"/>
-        <v>0.22999999999999998</v>
+        <v>0.20999999999999996</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -9086,87 +9091,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14000000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.11</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.28999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>0.43</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="7"/>
-        <v>0.26</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="8"/>
-        <v>0.56999999999999995</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48</v>
+        <v>0.59000000000000008</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="10"/>
-        <v>0.49000000000000005</v>
+        <v>0.61</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="11"/>
-        <v>0.22999999999999998</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38999999999999996</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="13"/>
-        <v>0.23999999999999994</v>
+        <v>0.45</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="14"/>
-        <v>0.5</v>
+        <v>0.43999999999999995</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="15"/>
-        <v>0.41000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="16"/>
-        <v>0.28000000000000003</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="17"/>
-        <v>0.21999999999999992</v>
+        <v>0.22999999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -9175,67 +9180,67 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48</v>
+        <v>0.16</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21</v>
+        <v>0.39</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24</v>
+        <v>0.46</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43000000000000005</v>
+        <v>0.46000000000000008</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>0.26000000000000006</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="8"/>
-        <v>0.42000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="9"/>
-        <v>0.52</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="10"/>
-        <v>0.43000000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="11"/>
-        <v>0.49</v>
+        <v>0.22999999999999993</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="12"/>
-        <v>0.44999999999999996</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="13"/>
@@ -9243,19 +9248,19 @@
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="14"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="15"/>
-        <v>0.44999999999999996</v>
+        <v>0.26</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="16"/>
-        <v>0.27</v>
+        <v>0.47</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="17"/>
-        <v>0.43999999999999995</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -9264,92 +9269,92 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.09</v>
+        <v>0.3</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0000000000000007E-2</v>
+        <v>0.26</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53</v>
+        <v>0.34</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>0.35</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47000000000000008</v>
+        <v>0.5</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43999999999999995</v>
+        <v>0.37</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="9"/>
-        <v>0.48000000000000004</v>
+        <v>0.36</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="10"/>
-        <v>0.18</v>
+        <v>0.45000000000000007</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="11"/>
-        <v>0.39</v>
+        <v>0.21000000000000002</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="12"/>
-        <v>0.38000000000000006</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="13"/>
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="14"/>
-        <v>0.43999999999999995</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="15"/>
-        <v>0.4</v>
+        <v>0.42000000000000004</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="16"/>
-        <v>0.4499999999999999</v>
+        <v>0.38</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="17"/>
-        <v>0.39000000000000007</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
